--- a/python9/class_0821_opnpyxl/python9.xlsx
+++ b/python9/class_0821_opnpyxl/python9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12645" windowHeight="4815" activeTab="2"/>
+    <workbookView windowWidth="12645" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="python9" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+  <si>
+    <t>小幸福1</t>
+  </si>
+  <si>
+    <t>小幸福2</t>
+  </si>
+  <si>
+    <t>小幸福3</t>
+  </si>
+  <si>
+    <t>小幸福4</t>
+  </si>
+  <si>
+    <t>小幸福5</t>
+  </si>
+  <si>
+    <t>小幸福6</t>
+  </si>
+  <si>
+    <t>小幸福7</t>
+  </si>
+  <si>
+    <t>小幸福8</t>
+  </si>
+  <si>
+    <t>小幸福9</t>
+  </si>
+  <si>
+    <t>小幸福10</t>
+  </si>
+  <si>
+    <t>小幸福11</t>
+  </si>
+  <si>
+    <t>小二1</t>
+  </si>
+  <si>
+    <t>小二2</t>
+  </si>
+  <si>
+    <t>小二3</t>
+  </si>
+  <si>
+    <t>小二4</t>
+  </si>
+  <si>
+    <t>小二5</t>
+  </si>
+  <si>
+    <t>小二6</t>
+  </si>
+  <si>
+    <t>小二7</t>
+  </si>
+  <si>
+    <t>小二8</t>
+  </si>
+  <si>
+    <t>小二9</t>
+  </si>
+  <si>
+    <t>小二10</t>
+  </si>
+  <si>
+    <t>小二11</t>
+  </si>
+  <si>
+    <t>{"age":18}</t>
+  </si>
+  <si>
+    <t>["a",1,2]</t>
+  </si>
+  <si>
+    <t>(1,2,3)</t>
+  </si>
+  <si>
+    <t>hello'</t>
+  </si>
+  <si>
+    <t>菜菜</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +148,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -161,23 +240,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +277,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -210,30 +313,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -246,48 +325,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,6 +385,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -318,7 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,48 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,153 +567,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -985,14 +1067,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>666</v>
+      </c>
+      <c r="F3">
+        <v>2.067</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1002,14 +1179,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1021,7 +1204,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
